--- a/static/all_coffee_categorical_data_cleaned.xlsx
+++ b/static/all_coffee_categorical_data_cleaned.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naxat\OneDrive\Desktop\UNI\Thesis\Data_Analysis_Project\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{C67F1C7D-5A17-47D4-918A-DAF866B58ECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E80C66E-EC50-404B-8C3D-08B5D7EA72FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all_coffee_categorical_data" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="86">
   <si>
     <t>ID</t>
   </si>
@@ -61,24 +61,6 @@
     <t>Color</t>
   </si>
   <si>
-    <t>Aroma_Category</t>
-  </si>
-  <si>
-    <t>Flavor_Category</t>
-  </si>
-  <si>
-    <t>Aftertaste_Category</t>
-  </si>
-  <si>
-    <t>Acidity_Category</t>
-  </si>
-  <si>
-    <t>Body_Category</t>
-  </si>
-  <si>
-    <t>Overall_Category</t>
-  </si>
-  <si>
     <t>Colombia</t>
   </si>
   <si>
@@ -284,12 +266,27 @@
   </si>
   <si>
     <t>SEMI-LAVADO</t>
+  </si>
+  <si>
+    <t>Aroma_</t>
+  </si>
+  <si>
+    <t>Flavor_</t>
+  </si>
+  <si>
+    <t>Aftertaste_</t>
+  </si>
+  <si>
+    <t>Acidity_</t>
+  </si>
+  <si>
+    <t>Body_</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1123,11 +1120,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R105"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1146,19 +1143,19 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="J1" t="s">
         <v>9</v>
@@ -1170,22 +1167,22 @@
         <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="N1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="O1" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="P1" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="Q1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="R1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
@@ -1193,13 +1190,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <v>8.58</v>
@@ -1223,25 +1220,25 @@
         <v>8.58</v>
       </c>
       <c r="L2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="N2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="O2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="P2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="Q2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="R2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
@@ -1249,13 +1246,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>8.33</v>
@@ -1279,25 +1276,25 @@
         <v>8.33</v>
       </c>
       <c r="L3" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="M3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="N3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="O3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="P3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="Q3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="R3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
@@ -1305,13 +1302,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E4">
         <v>8.33</v>
@@ -1335,25 +1332,25 @@
         <v>8.25</v>
       </c>
       <c r="L4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="M4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="N4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="O4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="P4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="Q4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="R4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
@@ -1361,13 +1358,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>8.33</v>
@@ -1391,25 +1388,25 @@
         <v>8.25</v>
       </c>
       <c r="L5" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="N5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="O5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="P5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="Q5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="R5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
@@ -1417,13 +1414,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>8.08</v>
@@ -1447,25 +1444,25 @@
         <v>8.25</v>
       </c>
       <c r="L6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="N6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="O6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="P6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="Q6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="R6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
@@ -1473,13 +1470,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E7">
         <v>8.08</v>
@@ -1503,25 +1500,25 @@
         <v>8</v>
       </c>
       <c r="L7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="N7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="O7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="P7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="Q7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="R7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
@@ -1529,13 +1526,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>8.08</v>
@@ -1559,25 +1556,25 @@
         <v>8</v>
       </c>
       <c r="L8" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="N8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="O8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="P8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="Q8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="R8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
@@ -1585,13 +1582,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>8.08</v>
@@ -1615,25 +1612,25 @@
         <v>8</v>
       </c>
       <c r="L9" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M9" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="N9" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="O9" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="P9" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="Q9" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="R9" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
@@ -1641,13 +1638,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>8.17</v>
@@ -1671,25 +1668,25 @@
         <v>8.08</v>
       </c>
       <c r="L10" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M10" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="N10" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="O10" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="P10" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="Q10" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="R10" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
@@ -1697,13 +1694,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E11">
         <v>8.08</v>
@@ -1727,25 +1724,25 @@
         <v>8.17</v>
       </c>
       <c r="L11" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="M11" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="N11" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="O11" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="P11" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="Q11" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="R11" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
@@ -1753,13 +1750,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E12">
         <v>8</v>
@@ -1783,25 +1780,25 @@
         <v>8.08</v>
       </c>
       <c r="L12" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="M12" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="N12" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="O12" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="P12" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="Q12" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="R12" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
@@ -1809,13 +1806,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E13">
         <v>7.67</v>
@@ -1839,25 +1836,25 @@
         <v>8.08</v>
       </c>
       <c r="L13" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="M13" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N13" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="O13" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="P13" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="Q13" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="R13" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.35">
@@ -1865,13 +1862,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E14">
         <v>7.83</v>
@@ -1895,25 +1892,25 @@
         <v>7.92</v>
       </c>
       <c r="L14" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="M14" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N14" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="O14" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="P14" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="Q14" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="R14" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.35">
@@ -1921,13 +1918,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E15">
         <v>7.92</v>
@@ -1951,25 +1948,25 @@
         <v>8</v>
       </c>
       <c r="L15" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M15" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="N15" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="O15" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="P15" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="Q15" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="R15" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.35">
@@ -1977,13 +1974,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E16">
         <v>8</v>
@@ -2007,25 +2004,25 @@
         <v>7.92</v>
       </c>
       <c r="L16" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M16" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="N16" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="O16" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="P16" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="Q16" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="R16" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.35">
@@ -2033,13 +2030,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E17">
         <v>8</v>
@@ -2063,25 +2060,25 @@
         <v>8.08</v>
       </c>
       <c r="L17" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="M17" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="N17" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="O17" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="P17" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Q17" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="R17" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.35">
@@ -2089,13 +2086,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E18">
         <v>8.08</v>
@@ -2119,25 +2116,25 @@
         <v>8</v>
       </c>
       <c r="L18" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M18" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="N18" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="O18" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="P18" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Q18" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="R18" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.35">
@@ -2145,13 +2142,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D19" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E19">
         <v>8</v>
@@ -2175,25 +2172,25 @@
         <v>7.83</v>
       </c>
       <c r="L19" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="M19" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="N19" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="O19" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="P19" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="Q19" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="R19" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.35">
@@ -2201,13 +2198,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E20">
         <v>8</v>
@@ -2231,25 +2228,25 @@
         <v>7.92</v>
       </c>
       <c r="L20" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="M20" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="N20" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="O20" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="P20" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="Q20" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="R20" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.35">
@@ -2257,13 +2254,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E21">
         <v>8.17</v>
@@ -2287,25 +2284,25 @@
         <v>8</v>
       </c>
       <c r="L21" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M21" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="N21" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="O21" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="P21" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="Q21" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="R21" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.35">
@@ -2313,13 +2310,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D22" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E22">
         <v>8</v>
@@ -2343,25 +2340,25 @@
         <v>7.92</v>
       </c>
       <c r="L22" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="M22" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="N22" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="O22" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="P22" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="Q22" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="R22" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.35">
@@ -2369,13 +2366,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D23" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E23">
         <v>8</v>
@@ -2399,25 +2396,25 @@
         <v>7.92</v>
       </c>
       <c r="L23" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="M23" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="N23" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="O23" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="P23" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="Q23" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="R23" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.35">
@@ -2425,10 +2422,10 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E24">
         <v>7.92</v>
@@ -2452,25 +2449,25 @@
         <v>7.83</v>
       </c>
       <c r="L24" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M24" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="N24" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="O24" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="P24" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="Q24" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="R24" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.35">
@@ -2478,13 +2475,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C25" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E25">
         <v>7.67</v>
@@ -2508,25 +2505,25 @@
         <v>7.83</v>
       </c>
       <c r="L25" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M25" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N25" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="O25" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="P25" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="Q25" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="R25" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.35">
@@ -2534,13 +2531,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E26">
         <v>7.83</v>
@@ -2564,25 +2561,25 @@
         <v>7.92</v>
       </c>
       <c r="L26" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M26" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N26" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="O26" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="P26" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="Q26" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="R26" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.35">
@@ -2590,13 +2587,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C27" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D27" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E27">
         <v>8</v>
@@ -2620,25 +2617,25 @@
         <v>7.92</v>
       </c>
       <c r="L27" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="M27" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="N27" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="O27" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="P27" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Q27" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="R27" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.35">
@@ -2646,13 +2643,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C28" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D28" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E28">
         <v>8</v>
@@ -2676,25 +2673,25 @@
         <v>7.75</v>
       </c>
       <c r="L28" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M28" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="N28" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="O28" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="P28" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Q28" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="R28" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.35">
@@ -2702,13 +2699,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D29" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E29">
         <v>7.83</v>
@@ -2732,25 +2729,25 @@
         <v>8</v>
       </c>
       <c r="L29" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M29" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N29" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="O29" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="P29" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Q29" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="R29" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.35">
@@ -2758,13 +2755,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C30" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D30" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E30">
         <v>7.83</v>
@@ -2788,25 +2785,25 @@
         <v>7.83</v>
       </c>
       <c r="L30" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M30" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N30" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="O30" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="P30" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="Q30" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="R30" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.35">
@@ -2814,13 +2811,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C31" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D31" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E31">
         <v>7.92</v>
@@ -2844,25 +2841,25 @@
         <v>7.75</v>
       </c>
       <c r="L31" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M31" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="N31" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="O31" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="P31" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="Q31" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="R31" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.35">
@@ -2870,13 +2867,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C32" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D32" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E32">
         <v>7.83</v>
@@ -2900,25 +2897,25 @@
         <v>7.83</v>
       </c>
       <c r="L32" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="M32" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N32" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="O32" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="P32" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Q32" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="R32" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.35">
@@ -2926,13 +2923,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C33" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D33" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E33">
         <v>7.83</v>
@@ -2956,25 +2953,25 @@
         <v>7.92</v>
       </c>
       <c r="L33" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M33" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N33" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="O33" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="P33" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Q33" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="R33" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.35">
@@ -2982,13 +2979,13 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C34" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D34" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E34">
         <v>7.92</v>
@@ -3012,25 +3009,25 @@
         <v>8</v>
       </c>
       <c r="L34" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M34" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="N34" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="O34" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="P34" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Q34" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="R34" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.35">
@@ -3038,13 +3035,13 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C35" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D35" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E35">
         <v>7.83</v>
@@ -3068,25 +3065,25 @@
         <v>7.92</v>
       </c>
       <c r="L35" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M35" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N35" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="O35" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="P35" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Q35" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="R35" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.35">
@@ -3094,13 +3091,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C36" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D36" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E36">
         <v>7.75</v>
@@ -3124,25 +3121,25 @@
         <v>7.92</v>
       </c>
       <c r="L36" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M36" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N36" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="O36" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="P36" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Q36" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="R36" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.35">
@@ -3150,13 +3147,13 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C37" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D37" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E37">
         <v>7.83</v>
@@ -3180,25 +3177,25 @@
         <v>7.75</v>
       </c>
       <c r="L37" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M37" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N37" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="O37" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="P37" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Q37" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="R37" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.35">
@@ -3206,13 +3203,13 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C38" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D38" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E38">
         <v>8.08</v>
@@ -3236,25 +3233,25 @@
         <v>7.83</v>
       </c>
       <c r="L38" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M38" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="N38" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="O38" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="P38" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Q38" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="R38" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.35">
@@ -3262,13 +3259,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C39" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D39" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E39">
         <v>7.67</v>
@@ -3292,25 +3289,25 @@
         <v>7.75</v>
       </c>
       <c r="L39" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M39" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N39" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="O39" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="P39" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Q39" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="R39" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.35">
@@ -3318,13 +3315,13 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C40" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D40" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E40">
         <v>7.83</v>
@@ -3348,25 +3345,25 @@
         <v>7.75</v>
       </c>
       <c r="L40" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="M40" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N40" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="O40" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="P40" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="Q40" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="R40" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.35">
@@ -3374,13 +3371,13 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C41" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D41" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E41">
         <v>7.75</v>
@@ -3404,25 +3401,25 @@
         <v>7.83</v>
       </c>
       <c r="L41" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M41" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N41" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="O41" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="P41" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Q41" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="R41" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.35">
@@ -3430,13 +3427,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C42" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D42" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E42">
         <v>7.58</v>
@@ -3460,25 +3457,25 @@
         <v>7.75</v>
       </c>
       <c r="L42" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M42" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="N42" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="O42" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="P42" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Q42" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="R42" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.35">
@@ -3486,13 +3483,13 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C43" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D43" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E43">
         <v>7.75</v>
@@ -3516,25 +3513,25 @@
         <v>7.75</v>
       </c>
       <c r="L43" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M43" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N43" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="O43" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="P43" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Q43" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="R43" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.35">
@@ -3542,13 +3539,13 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C44" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D44" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E44">
         <v>7.83</v>
@@ -3572,25 +3569,25 @@
         <v>7.67</v>
       </c>
       <c r="L44" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M44" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N44" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="O44" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="P44" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="Q44" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="R44" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.35">
@@ -3598,13 +3595,13 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C45" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D45" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E45">
         <v>7.67</v>
@@ -3628,25 +3625,25 @@
         <v>7.67</v>
       </c>
       <c r="L45" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M45" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N45" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="O45" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="P45" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Q45" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="R45" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.35">
@@ -3654,13 +3651,13 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C46" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D46" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E46">
         <v>7.75</v>
@@ -3684,25 +3681,25 @@
         <v>7.67</v>
       </c>
       <c r="L46" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M46" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N46" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="O46" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="P46" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Q46" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="R46" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.35">
@@ -3710,13 +3707,13 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C47" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D47" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E47">
         <v>8</v>
@@ -3740,25 +3737,25 @@
         <v>7.75</v>
       </c>
       <c r="L47" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M47" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="N47" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="O47" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="P47" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Q47" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="R47" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.35">
@@ -3766,13 +3763,13 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C48" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D48" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E48">
         <v>7.67</v>
@@ -3796,25 +3793,25 @@
         <v>7.67</v>
       </c>
       <c r="L48" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M48" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N48" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="O48" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="P48" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="Q48" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="R48" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.35">
@@ -3822,13 +3819,13 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C49" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D49" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E49">
         <v>7.83</v>
@@ -3852,25 +3849,25 @@
         <v>7.75</v>
       </c>
       <c r="L49" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M49" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N49" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="O49" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="P49" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Q49" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="R49" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.35">
@@ -3878,13 +3875,13 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C50" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D50" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E50">
         <v>7.75</v>
@@ -3908,25 +3905,25 @@
         <v>7.75</v>
       </c>
       <c r="L50" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="M50" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N50" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="O50" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="P50" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Q50" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="R50" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.35">
@@ -3934,13 +3931,13 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C51" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D51" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E51">
         <v>7.58</v>
@@ -3964,25 +3961,25 @@
         <v>7.75</v>
       </c>
       <c r="L51" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M51" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="N51" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="O51" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="P51" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Q51" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="R51" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.35">
@@ -3990,13 +3987,13 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C52" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D52" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E52">
         <v>7.83</v>
@@ -4020,25 +4017,25 @@
         <v>7.75</v>
       </c>
       <c r="L52" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M52" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N52" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="O52" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="P52" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="Q52" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="R52" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.35">
@@ -4046,13 +4043,13 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C53" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D53" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E53">
         <v>7.67</v>
@@ -4076,25 +4073,25 @@
         <v>7.75</v>
       </c>
       <c r="L53" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M53" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N53" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="O53" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="P53" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="Q53" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="R53" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.35">
@@ -4102,13 +4099,13 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C54" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D54" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E54">
         <v>7.67</v>
@@ -4132,25 +4129,25 @@
         <v>7.75</v>
       </c>
       <c r="L54" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M54" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N54" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="O54" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="P54" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Q54" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="R54" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.35">
@@ -4158,13 +4155,13 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C55" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D55" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E55">
         <v>7.67</v>
@@ -4188,25 +4185,25 @@
         <v>7.67</v>
       </c>
       <c r="L55" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="M55" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N55" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="O55" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="P55" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Q55" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="R55" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.35">
@@ -4214,13 +4211,13 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C56" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D56" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E56">
         <v>7.58</v>
@@ -4244,25 +4241,25 @@
         <v>7.67</v>
       </c>
       <c r="L56" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M56" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="N56" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="O56" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="P56" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Q56" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="R56" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.35">
@@ -4270,13 +4267,13 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C57" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D57" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E57">
         <v>7.58</v>
@@ -4300,25 +4297,25 @@
         <v>7.67</v>
       </c>
       <c r="L57" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M57" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="N57" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="O57" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="P57" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Q57" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="R57" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.35">
@@ -4326,13 +4323,13 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C58" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D58" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E58">
         <v>7.58</v>
@@ -4356,25 +4353,25 @@
         <v>7.75</v>
       </c>
       <c r="L58" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M58" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="N58" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="O58" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="P58" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Q58" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="R58" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.35">
@@ -4382,13 +4379,13 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C59" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D59" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E59">
         <v>7.75</v>
@@ -4412,25 +4409,25 @@
         <v>7.58</v>
       </c>
       <c r="L59" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="M59" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N59" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="O59" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="P59" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="Q59" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="R59" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.35">
@@ -4438,13 +4435,13 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C60" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D60" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E60">
         <v>7.42</v>
@@ -4468,25 +4465,25 @@
         <v>7.67</v>
       </c>
       <c r="L60" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M60" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="N60" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="O60" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="P60" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="Q60" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="R60" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.35">
@@ -4494,13 +4491,13 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C61" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D61" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E61">
         <v>7.75</v>
@@ -4524,25 +4521,25 @@
         <v>7.75</v>
       </c>
       <c r="L61" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M61" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N61" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="O61" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="P61" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="Q61" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="R61" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.35">
@@ -4550,13 +4547,13 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C62" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D62" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E62">
         <v>7.75</v>
@@ -4580,25 +4577,25 @@
         <v>7.67</v>
       </c>
       <c r="L62" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M62" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N62" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="O62" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="P62" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="Q62" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="R62" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.35">
@@ -4606,13 +4603,13 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C63" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D63" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E63">
         <v>7.5</v>
@@ -4636,25 +4633,25 @@
         <v>7.5</v>
       </c>
       <c r="L63" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M63" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="N63" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="O63" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="P63" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Q63" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="R63" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.35">
@@ -4662,13 +4659,13 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C64" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D64" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E64">
         <v>7.67</v>
@@ -4692,25 +4689,25 @@
         <v>7.58</v>
       </c>
       <c r="L64" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M64" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N64" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="O64" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="P64" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Q64" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="R64" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.35">
@@ -4718,13 +4715,13 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C65" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D65" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E65">
         <v>7.75</v>
@@ -4748,25 +4745,25 @@
         <v>7.5</v>
       </c>
       <c r="L65" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M65" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N65" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="O65" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="P65" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="Q65" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="R65" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.35">
@@ -4774,13 +4771,13 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C66" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D66" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E66">
         <v>7.92</v>
@@ -4804,25 +4801,25 @@
         <v>7.5</v>
       </c>
       <c r="L66" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M66" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="N66" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="O66" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="P66" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="Q66" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="R66" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.35">
@@ -4830,13 +4827,13 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C67" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D67" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E67">
         <v>7.75</v>
@@ -4860,25 +4857,25 @@
         <v>7.58</v>
       </c>
       <c r="L67" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M67" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N67" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="O67" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="P67" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Q67" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="R67" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.35">
@@ -4886,13 +4883,13 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C68" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D68" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E68">
         <v>7.67</v>
@@ -4916,25 +4913,25 @@
         <v>7.5</v>
       </c>
       <c r="L68" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="M68" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N68" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="O68" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="P68" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="Q68" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="R68" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.35">
@@ -4942,13 +4939,13 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C69" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D69" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E69">
         <v>7.75</v>
@@ -4972,25 +4969,25 @@
         <v>7.5</v>
       </c>
       <c r="L69" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M69" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N69" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="O69" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="P69" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Q69" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="R69" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.35">
@@ -4998,13 +4995,13 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C70" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D70" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E70">
         <v>7.67</v>
@@ -5028,25 +5025,25 @@
         <v>7.58</v>
       </c>
       <c r="L70" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="M70" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N70" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="O70" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="P70" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Q70" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="R70" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.35">
@@ -5054,13 +5051,13 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C71" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D71" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E71">
         <v>7.75</v>
@@ -5084,25 +5081,25 @@
         <v>7.5</v>
       </c>
       <c r="L71" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M71" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N71" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="O71" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="P71" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="Q71" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="R71" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.35">
@@ -5110,13 +5107,13 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C72" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D72" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E72">
         <v>7.5</v>
@@ -5140,25 +5137,25 @@
         <v>7.58</v>
       </c>
       <c r="L72" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M72" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="N72" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="O72" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="P72" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="Q72" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="R72" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.35">
@@ -5166,13 +5163,13 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C73" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D73" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E73">
         <v>7.58</v>
@@ -5196,25 +5193,25 @@
         <v>7.58</v>
       </c>
       <c r="L73" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M73" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="N73" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="O73" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="P73" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Q73" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="R73" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.35">
@@ -5222,13 +5219,13 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C74" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D74" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E74">
         <v>7.67</v>
@@ -5252,25 +5249,25 @@
         <v>7.5</v>
       </c>
       <c r="L74" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M74" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N74" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="O74" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="P74" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="Q74" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="R74" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.35">
@@ -5278,13 +5275,13 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C75" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D75" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E75">
         <v>7.58</v>
@@ -5308,25 +5305,25 @@
         <v>7.33</v>
       </c>
       <c r="L75" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M75" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="N75" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="O75" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="P75" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="Q75" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="R75" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.35">
@@ -5334,13 +5331,13 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C76" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D76" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E76">
         <v>7.33</v>
@@ -5364,25 +5361,25 @@
         <v>7.42</v>
       </c>
       <c r="L76" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="M76" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="N76" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="O76" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="P76" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="Q76" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="R76" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.35">
@@ -5390,13 +5387,13 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C77" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D77" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E77">
         <v>7.33</v>
@@ -5420,25 +5417,25 @@
         <v>7.33</v>
       </c>
       <c r="L77" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M77" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="N77" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="O77" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="P77" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="Q77" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="R77" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.35">
@@ -5446,13 +5443,13 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C78" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D78" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E78">
         <v>7.67</v>
@@ -5476,25 +5473,25 @@
         <v>7.5</v>
       </c>
       <c r="L78" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M78" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N78" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="O78" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="P78" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="Q78" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="R78" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.35">
@@ -5502,13 +5499,13 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C79" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D79" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E79">
         <v>7.67</v>
@@ -5532,25 +5529,25 @@
         <v>7.5</v>
       </c>
       <c r="L79" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M79" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N79" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="O79" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="P79" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="Q79" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="R79" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.35">
@@ -5558,13 +5555,13 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C80" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D80" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E80">
         <v>7.67</v>
@@ -5588,25 +5585,25 @@
         <v>7.33</v>
       </c>
       <c r="L80" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M80" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N80" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="O80" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="P80" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Q80" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="R80" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.35">
@@ -5614,13 +5611,13 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C81" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D81" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E81">
         <v>7.5</v>
@@ -5644,25 +5641,25 @@
         <v>7.33</v>
       </c>
       <c r="L81" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="M81" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="N81" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="O81" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="P81" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="Q81" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="R81" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.35">
@@ -5670,13 +5667,13 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C82" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D82" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E82">
         <v>7.67</v>
@@ -5700,25 +5697,25 @@
         <v>7.33</v>
       </c>
       <c r="L82" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="M82" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N82" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="O82" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="P82" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="Q82" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="R82" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.35">
@@ -5726,13 +5723,13 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C83" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D83" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E83">
         <v>7.42</v>
@@ -5756,25 +5753,25 @@
         <v>7.58</v>
       </c>
       <c r="L83" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M83" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="N83" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="O83" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="P83" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="Q83" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="R83" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.35">
@@ -5782,13 +5779,13 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C84" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D84" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E84">
         <v>7.5</v>
@@ -5812,25 +5809,25 @@
         <v>7.58</v>
       </c>
       <c r="L84" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="M84" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="N84" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="O84" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="P84" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="Q84" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="R84" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.35">
@@ -5838,13 +5835,13 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C85" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D85" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E85">
         <v>7.33</v>
@@ -5868,25 +5865,25 @@
         <v>7.17</v>
       </c>
       <c r="L85" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="M85" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="N85" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="O85" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="P85" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Q85" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="R85" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.35">
@@ -5894,13 +5891,13 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C86" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D86" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E86">
         <v>7.67</v>
@@ -5924,25 +5921,25 @@
         <v>7.42</v>
       </c>
       <c r="L86" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M86" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N86" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="O86" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="P86" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="Q86" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="R86" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.35">
@@ -5950,13 +5947,13 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C87" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D87" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E87">
         <v>7.5</v>
@@ -5980,25 +5977,25 @@
         <v>7.5</v>
       </c>
       <c r="L87" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M87" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="N87" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="O87" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="P87" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="Q87" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="R87" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.35">
@@ -6006,13 +6003,13 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C88" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D88" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E88">
         <v>7.5</v>
@@ -6036,25 +6033,25 @@
         <v>7.5</v>
       </c>
       <c r="L88" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="M88" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="N88" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="O88" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="P88" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="Q88" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="R88" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.35">
@@ -6062,13 +6059,13 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C89" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D89" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E89">
         <v>7.5</v>
@@ -6092,25 +6089,25 @@
         <v>7.42</v>
       </c>
       <c r="L89" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M89" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="N89" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="O89" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="P89" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="Q89" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="R89" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.35">
@@ -6118,13 +6115,13 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C90" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D90" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E90">
         <v>7.42</v>
@@ -6148,25 +6145,25 @@
         <v>7.5</v>
       </c>
       <c r="L90" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M90" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="N90" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="O90" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="P90" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="Q90" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="R90" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.35">
@@ -6174,10 +6171,10 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D91" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E91">
         <v>7.67</v>
@@ -6201,25 +6198,25 @@
         <v>7.42</v>
       </c>
       <c r="L91" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="M91" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N91" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="O91" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="P91" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Q91" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="R91" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.35">
@@ -6227,13 +6224,13 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C92" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D92" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E92">
         <v>7.33</v>
@@ -6257,25 +6254,25 @@
         <v>7.42</v>
       </c>
       <c r="L92" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M92" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="N92" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="O92" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="P92" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="Q92" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="R92" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.35">
@@ -6283,13 +6280,13 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C93" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D93" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E93">
         <v>7.5</v>
@@ -6313,25 +6310,25 @@
         <v>7.33</v>
       </c>
       <c r="L93" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M93" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="N93" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="O93" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="P93" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="Q93" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="R93" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.35">
@@ -6339,13 +6336,13 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C94" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="D94" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E94">
         <v>7.42</v>
@@ -6369,25 +6366,25 @@
         <v>7.33</v>
       </c>
       <c r="L94" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="M94" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="N94" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="O94" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="P94" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="Q94" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="R94" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.35">
@@ -6395,13 +6392,13 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C95" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D95" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E95">
         <v>7.58</v>
@@ -6425,25 +6422,25 @@
         <v>7.33</v>
       </c>
       <c r="L95" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M95" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="N95" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="O95" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="P95" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="Q95" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="R95" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.35">
@@ -6451,13 +6448,13 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C96" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D96" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E96">
         <v>7.42</v>
@@ -6481,25 +6478,25 @@
         <v>7.33</v>
       </c>
       <c r="L96" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="M96" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="N96" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="O96" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="P96" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="Q96" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="R96" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.35">
@@ -6507,13 +6504,13 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C97" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D97" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E97">
         <v>7.33</v>
@@ -6537,25 +6534,25 @@
         <v>7.17</v>
       </c>
       <c r="L97" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M97" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="N97" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="O97" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="P97" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="Q97" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="R97" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.35">
@@ -6563,13 +6560,13 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C98" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D98" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E98">
         <v>7.25</v>
@@ -6593,25 +6590,25 @@
         <v>7.17</v>
       </c>
       <c r="L98" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M98" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="N98" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="O98" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="P98" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="Q98" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="R98" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.35">
@@ -6619,10 +6616,10 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D99" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E99">
         <v>7.42</v>
@@ -6646,25 +6643,25 @@
         <v>7.25</v>
       </c>
       <c r="L99" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M99" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="N99" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="O99" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="P99" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="Q99" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="R99" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.35">
@@ -6672,13 +6669,13 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C100" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D100" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E100">
         <v>7.25</v>
@@ -6702,25 +6699,25 @@
         <v>7.17</v>
       </c>
       <c r="L100" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M100" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="N100" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="O100" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="P100" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="Q100" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="R100" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.35">
@@ -6728,13 +6725,13 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C101" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D101" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E101">
         <v>7.25</v>
@@ -6758,25 +6755,25 @@
         <v>7.25</v>
       </c>
       <c r="L101" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="M101" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="N101" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="O101" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="P101" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="Q101" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="R101" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.35">
@@ -6784,13 +6781,13 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C102" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D102" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E102">
         <v>7.08</v>
@@ -6814,25 +6811,25 @@
         <v>7</v>
       </c>
       <c r="L102" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="M102" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="N102" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="O102" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="P102" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="Q102" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="R102" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.35">
@@ -6840,13 +6837,13 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C103" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D103" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E103">
         <v>7.17</v>
@@ -6870,25 +6867,25 @@
         <v>7.08</v>
       </c>
       <c r="L103" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M103" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="N103" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="O103" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="P103" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="Q103" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="R103" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.35">
@@ -6896,13 +6893,13 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C104" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D104" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E104">
         <v>7.25</v>
@@ -6926,25 +6923,25 @@
         <v>7</v>
       </c>
       <c r="L104" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M104" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="N104" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="O104" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="P104" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="Q104" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="R104" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.35">
@@ -6952,13 +6949,13 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C105" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D105" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E105">
         <v>7.25</v>
@@ -6982,25 +6979,25 @@
         <v>6.67</v>
       </c>
       <c r="L105" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="M105" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="N105" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="O105" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="P105" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="Q105" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="R105" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
